--- a/data_year/zb/科技/按登记注册类型和行业分大中型工业企业新产品开发及生产情况/按行业分大中型工业企业新产品产值.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分大中型工业企业新产品开发及生产情况/按行业分大中型工业企业新产品产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM10"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,54 +628,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>33276251.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>167349903.7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9427242.699999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7578982.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>36706782.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7245039.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17722063.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1388118.8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5169436.7</v>
+      </c>
       <c r="K2" t="n">
-        <v>79973698.59999999</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>736062822.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1285393.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2007564.7</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1243585.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>22461993.3</v>
+      </c>
+      <c r="P2" t="n">
+        <v>319331.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1759032.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>8153162.7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>20440.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>7746158.1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4487545.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>28067</v>
+      </c>
+      <c r="W2" t="n">
+        <v>863828.8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>89322981</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2994879.8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7758311.2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>298153.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>23625118.7</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5457619.4</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>133569301.8</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>40732532.4</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>7152184.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9478370</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>11013998.3</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>207398.9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>6072676.9</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>5931424.5</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>56028121.1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>128352.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -688,7 +762,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>205625718</v>
+        <v>885826552.3</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -719,555 +793,6 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>253823290</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>322619625</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>427637650</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>20306466.3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>104629333.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6146725.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>6793716.4</v>
-      </c>
-      <c r="F7" t="n">
-        <v>23941513.2</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6252793.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10196335.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>896907.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3901172.9</v>
-      </c>
-      <c r="K7" t="n">
-        <v>523942671.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>917900</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1130964.8</v>
-      </c>
-      <c r="N7" t="n">
-        <v>890306.2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>15018710.6</v>
-      </c>
-      <c r="P7" t="n">
-        <v>509090.4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1266079.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5225482.8</v>
-      </c>
-      <c r="S7" t="n">
-        <v>22267.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3459330.3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6386350.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>31515.2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>245156.8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>53094123.4</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2248565.8</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8989952.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>5583962.3</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>10457916.2</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>2735841.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>109232812</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>29403964.9</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>5638903.1</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>7117643.4</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6988501.7</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>185838.6</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>4112563.8</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>4219385.9</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>55643445.8</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>124703</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>25849579.3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>144801820.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6572842.9</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6912026.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>28352878.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5638440.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13440842.8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1260113.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4757223.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>587144048.6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1040644.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1634353.7</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1128779.8</v>
-      </c>
-      <c r="O8" t="n">
-        <v>13205905.2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>619313.4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1554049.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6300020.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2819.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6859209.1</v>
-      </c>
-      <c r="U8" t="n">
-        <v>7014747.1</v>
-      </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="n">
-        <v>358023.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>64694733.4</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2719906.8</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>5900797.9</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>144778.1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>18165830.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>4552441</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>102177760.7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>33717043.6</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>5729127.4</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>6997184.7</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>8786609.800000001</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>238915.1</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>4898534.8</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>4360427.4</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>46658913.4</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>79342.10000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>33276251.7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>167349903.7</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9427242.699999999</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7578982.5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>36706782.8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7245039.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>17722063.4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1388118.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5169436.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>736062822.4</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1285393.6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2007564.7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1243585.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>22461993.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>319331.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1759032.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8153162.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>20440.7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>7746158.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>4487545.2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>28067</v>
-      </c>
-      <c r="W9" t="n">
-        <v>863828.8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>89322981</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>2994879.8</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>7758311.2</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>298153.3</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>23625118.7</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>5457619.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>133569301.8</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>40732532.4</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7152184.5</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>9478370</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>11013998.3</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>207398.9</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>6072676.9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>5931424.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>56028121.1</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>128352.6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>885826552.3</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
